--- a/biology/Médecine/Olivier_Lyon-Caen/Olivier_Lyon-Caen.xlsx
+++ b/biology/Médecine/Olivier_Lyon-Caen/Olivier_Lyon-Caen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Lyon-Caen, né le 5 janvier 1947 dans le 16e arrondissement de Paris, est un neurologue et un universitaire français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Gérard Lyon-Caen (1919-2004), professeur de droit social, le frère d'Antoine Lyon-Caen, lui aussi professeur de droit social, l'époux de Jacqueline Chabridon[1] et le père de Thomas Lyon-Caen, avocat au Conseil d'État et à la Cour de cassation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Gérard Lyon-Caen (1919-2004), professeur de droit social, le frère d'Antoine Lyon-Caen, lui aussi professeur de droit social, l'époux de Jacqueline Chabridon et le père de Thomas Lyon-Caen, avocat au Conseil d'État et à la Cour de cassation.
 Il est le chef du service de neurologie à l'hôpital de la Pitié-Salpêtrière, ainsi que le coordinateur du pôle des maladies des systèmes nerveux. Il est par ailleurs professeur en neurologie à l'université Pierre et Marie Curie.
 Il a animé l'émission radiophonique médicale Avec ou sans rendez-vous jusqu'en 2012, diffusée sur France Culture.
-En mai 2012, il est nommé conseiller santé et recherche médicale au cabinet de François Hollande à la présidence de la République[2].
+En mai 2012, il est nommé conseiller santé et recherche médicale au cabinet de François Hollande à la présidence de la République.
 En juillet 2017, il est nommé Médecin-conseil national au sein de la Caisse nationale de l'assurance maladie. 
-Le 5 octobre 2020, il est nommé conseiller auprès de Katia Julienne directrice générale à la Direction générale de l'Offre de soins[3] et est remplacé comme médecin-conseil à la CNAM par Dominique Martin le 1er décembre 2020[4].
+Le 5 octobre 2020, il est nommé conseiller auprès de Katia Julienne directrice générale à la Direction générale de l'Offre de soins et est remplacé comme médecin-conseil à la CNAM par Dominique Martin le 1er décembre 2020.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Priorité cerveau : des découvertes aux traitements, en collaboration avec Étienne Hirsch, Éditions Odile Jacob, 2010
 Le Cerveau pour les nuls, en collaboration avec Frédéric Sedel, préface de Gérard Saillant, Éditions First, 2010
@@ -580,9 +596,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur, Il est fait chevalier le 31 décembre 2004[5], puis est promu officier le 14 juillet 2019[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur, Il est fait chevalier le 31 décembre 2004, puis est promu officier le 14 juillet 2019.</t>
         </is>
       </c>
     </row>
